--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/30_Erzincan_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/30_Erzincan_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449DC8D5-6B44-4341-8006-A248A7982E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E022A327-7CB4-4C28-9908-57A2298DD135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{595E136C-A8AD-402A-BCC2-7159938F55AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{3748798F-DB29-43CE-914A-8A658F77596B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -948,13 +948,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DC5B1204-3E17-4DC4-B994-C2CA05E2E211}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{07CA1A7A-68B7-42FA-BBFE-5469360E49C0}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DC9E3D7B-3A97-44D3-BC45-C555D02CD7B0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{76FE5EDE-569F-47C1-85F1-9C55CF13C74F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AB1BEB96-2E91-425D-B02D-564500E28395}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FDB3BBD4-5980-4AB5-9C2D-6500CF78F88D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1EA15F5F-F76F-465F-BD29-59EE0AA8F0E3}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{95414B79-DD0C-4C99-B276-9301B335AE40}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6C1F13BA-FEC9-4B84-AA4E-5B798B372BB4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4DD05430-AF81-4110-ABA9-BC5E0C1C5863}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2CE98976-AB65-4AC5-9355-17EF14508BC1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{49614E66-6AB0-4D86-A578-114165E9CBFC}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{FF4DC65C-0237-498B-B335-116D8C88C76C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F790EEBA-9CBE-4B82-9E8A-97E132DBC34D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92482D08-40EE-446A-9685-656C8966B0C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E6CA47-9CBA-4963-AEDB-6FF2B3309970}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2559,18 +2559,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAA7B3DC-D012-48BD-9E3B-BAAE85D37012}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9B8DB9E-2EFA-46E6-AD5B-84482C42B17B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B2E1785-E290-4A2E-9762-50C4D34B7D22}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27ECE3BD-3A5B-41F7-A562-D3E68834F523}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{146C0DBA-67B6-42DF-A812-B43D97400BBB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6935E18E-38DC-44C2-AE3C-F8B0AD21B4E8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C2744CF-DFDF-431C-8429-10ACA101D8C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6DA3313-3867-43EA-8E84-2D8BE89D81F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A4CFA45-2B63-48E3-9B7E-84682FF920CE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C57E5BBE-F017-4B87-A1A8-83D8AA1373B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FFB5C3C-7155-400F-9DB0-E67614B162B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5E2B4CA-028C-428B-A2F0-3BD71ACEBCCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{801FB9B6-5B02-47A9-B34A-D05B9E60BCB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6625AEE-84AD-436E-BFAF-EEBB6FB29B39}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23CC7DC6-0F42-469F-9E6F-BB6E6A0020F7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9176D0D8-FAC5-46E7-A71C-EB09D1FF32AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DC1BB2B-69BA-41DE-B573-ED3866AFD17A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5F271D2F-0C31-4440-B598-7AF75849D680}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A326FBFB-45F4-47C6-8001-FE6CF0EAAFC5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E55C8FE-2BA3-4B0A-B842-9D2DD2F7FF59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E3389FE-779F-4ABE-B479-31B267740C02}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{57441818-40B2-4C2B-BA4E-70D00EEC7E6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DADCC0E-DB4E-4303-8073-3B25A960E40F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7E62135-C2F5-4AA4-B1F6-F20FA1FAD666}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2583,7 +2583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422A1BE-FA8A-45C5-957A-86975DB83A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3742EAF-AFD7-4EE2-9672-AF5CD5667E7F}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3797,18 +3797,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82A7FD4C-1FF0-40D3-9125-A40EB5A8E1BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79E78FFB-4191-4573-B1AA-B4ED21AFC119}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79A40CCA-2E50-499A-9B0A-3BBCEC1DE055}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94042244-DABA-4A83-B5F1-AFE9EC8A32E2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDA177EF-DCAC-4E3D-9A24-CBAA96E0C9CC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{763FD130-58ED-4DE0-9015-667DECC78F05}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EB63092-56BA-4519-AAFF-F48E70F5C4FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4162FFBA-809E-4E78-BBC9-BA2571862965}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{45B9FB23-A8A1-4BF6-A110-68EFE7A59F52}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{90D47106-8CB2-4772-A0BC-200DD933AFEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{300BC9FC-02F6-43EC-B5B1-A06AABC6A33D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0F74335-6D5B-4158-AA22-3C9CABC131C2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA237DA3-F499-4D77-815D-BAE5D9E213DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F02E0277-13EE-4D62-A1C8-12067ECAE6C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9F4143C-7F60-4C54-B9F8-D341D23BBDC1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93DCAD1E-CA55-4531-B711-B555FFC69427}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58E5274F-B34A-494E-95A0-0674149C0896}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E31A2C4E-A641-4784-A167-491CEA5310EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6D5D8D0-223A-400A-AB2A-16DA7E54E695}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F42F86D8-C19F-46A2-9252-54130098AD7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{467B7712-3ED0-4FB0-9651-5A14AE3E5329}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3F0D06C7-7E61-4AB0-9BE6-80DAAE58A705}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CD70C1B-D445-49CF-8C68-8BE60EDDDB3F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{515A2CAD-D431-41FE-BC48-ABFDD8E2F145}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3821,7 +3821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C3E964-E4FF-4436-8B50-18C17E6BB187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF72E82C-7668-40EA-ABC2-CA2130F48FB9}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5035,18 +5035,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B035FE1-8730-475A-8D5A-24FA35C9C658}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3B1B9F5-0717-4FC5-AE04-26031BE7E24E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DEC81E5D-C5E3-4C00-85AD-FD9D60A0F90F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35998FC3-4BB7-435A-96C2-F8CECDCF385F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EAFFA52F-3931-43EE-ADC5-8851AB1FC0A1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1326E193-78D1-44C5-8E61-5CE392A4CE6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{206F5D77-7B24-4D0D-A21F-284597B28ACD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53F654AB-0C9D-44FE-8168-24E90926F329}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24B254C7-D971-4F84-8E65-5C6DE6046338}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9A3A086C-6461-415A-98FC-E4D05FDBF918}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A4069F5-E155-4168-B491-734DA324AE28}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B9A986E-E0D3-4E73-9411-BD10293EFBE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33D49649-1986-48E5-BB0F-ACD6AE314AFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E55632DB-17D2-4790-BAF5-BEC8B416DFE3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A16B890B-E4E3-4577-A4EA-DD031F9076DD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E22E67D7-2BA1-4763-812D-A4479B775AE3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{452F82E7-5285-4F2B-A61E-5CA38F16DE03}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1DDB6528-C367-492A-B345-9C573B0D91EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17AF6ABB-3591-4EDB-A002-B9864862B5A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{313DB56C-5F38-44D0-819E-2610CBA26EF1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D72C7D63-101C-433F-9908-5708E2FFA0BA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9FBA2CDF-3A47-4B23-825B-55FC3A5D371E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FF15915-1905-443C-8C99-827753A56969}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{113B6638-F641-4BFF-93D9-D3D60E777B1C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5059,7 +5059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914FEAF0-74D0-4816-8012-4FB9CDA2B2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44FE97E-A0E6-4E5E-89EE-7AC6F5B1B96C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6267,18 +6267,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7FF0E03D-B650-484C-8CE2-C37B78650865}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95CF8E7E-0DA6-4A2D-8A00-E089006DBE17}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA667AC5-D8A4-46DB-8814-A9806374D303}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C146ECDA-3C66-4D65-8872-CD284D41793D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2BCA843-696C-4773-9351-E45669894BA4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{23D6269F-78F0-4ABF-98A1-BC9087B6CF7B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9B5A698-4062-46DA-9DBA-E00F466C6A4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C321F7F2-8BE3-4725-90B8-84EFB58F157E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60E174F8-9387-4D11-AFCF-F5F9E9047ED3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{52AE91A8-40F5-446C-9BCC-368C0E47ED95}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A6B90B5-0197-4F54-BBB1-C2B5C66466BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10E353DE-0A8E-4EC4-978E-1156D3B8E65E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E21CB58A-2A0B-45BC-82C4-AE992C4D70B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37A1D98A-2E71-4CDE-9592-4A2E01E79141}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{083DE534-ED8E-4425-B984-500C5173DC63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91A83C17-0EC4-4408-AE82-145F77100695}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D497DE42-FBE2-44D0-9578-C1E9B81F8746}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7C5A5B13-5BAD-41FA-8932-B1C298A59947}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DA7143E-2598-40C2-A34C-6007D086A513}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F7DC167-9CDC-4BC4-AC0B-AE022C7295B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B24C4118-1822-4CDB-AA20-7F9859A2F08C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DA89F975-8780-41D8-95EC-DC2E97C383C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A1E474A-8F53-4116-B3BD-89CEC8A123F0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{609F23D8-328D-415A-8FCF-99A8F069B345}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6291,7 +6291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04BFEFD-6A64-4B34-A488-B5DDF555E761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124CA377-2157-4B0B-ACA6-451641244314}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7524,18 +7524,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBF9AFED-F7B4-4D09-AF35-97E5E314C35D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6C3C630-9EA0-4796-B076-C6A95D14D181}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B4F15AF-707D-41D5-B763-1F6C57490903}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39FCCA73-268E-4997-9932-622D8EEB0FC8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36D82397-1839-41BD-87CF-1CF82A9850EF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3A6F7929-F422-4789-BB89-E1F374972668}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{626D05D3-63DF-46C3-BC02-E15A0EA54866}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF4EAD39-BD2A-4023-99AC-E0FF23738286}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9AC5EAF9-F14D-4089-BD7A-FA038A9C8945}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AFF97E29-2154-4283-BD40-244A921A7E54}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C695183-4AB9-4741-A73F-EB3378CD37A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75A9E240-4491-4614-9FC4-D27327486072}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD989234-CB3D-4DF3-AD74-C93883C1E631}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81F4012E-DC7E-459F-94F4-0552512B9A26}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC6E37DF-0D83-43E6-AA5D-ADFAE599EDF1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{051DB55A-A106-4BB6-AB7D-46BD176A7A8C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{109C851A-4783-4790-88EE-C58EF09C290F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CFFEBA01-03A7-4021-B623-59330A836C64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3793472F-1502-4004-806C-622C0DE093BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{419838DB-139C-489D-A60A-7ABB5A8ACF81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DF7FF75-7ADC-4CFC-B48E-E34E76256B08}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{75803FFB-67FF-4388-B152-D090CAD4DDD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A974B362-A1E5-45D5-AE72-8EE0C041BB70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DFA9E61-2560-4AAA-8CA2-64511E0E8C8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7548,7 +7548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A338BBDA-75FF-40E8-A413-36F9A5E38391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3CE9E1-9C08-44F1-90CF-16D3E0374674}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8781,18 +8781,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C383B888-BCCE-4546-BE4C-E34507896CCD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DE9D9AE-381D-45E8-A592-DE400B139C83}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{11AAD638-2DD0-4944-BEBD-7BF9883F4BA9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D9B180C-4469-4435-8D8E-D58CF0100B29}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0302A48-9495-4159-8848-6B5FE79B45C1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A3E3C299-FA5D-446D-AA38-1A7390D329E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9898AA0C-DB3F-43CB-BDEE-2B0731D1AA83}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BBC2FD2-DA1B-4BA2-8E9E-A2398759BDA5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5FC0E76F-862C-4DC9-B9F6-7881514E8934}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6EDD7023-AF82-49F0-9EE6-870660CC6FF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90A179C5-52F1-4D2B-9770-1A2F39F35382}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67691A1D-CCC5-4184-B9AD-488D2071455B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B604996D-54D9-45FC-A3B2-76F7CA24B4DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B11F4883-78F1-43F5-88FB-95073793905B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04A00F78-907A-43C1-A355-6B4C452FDC5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0AC97E87-4E96-44EF-B983-4F653842489C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85386E1C-034E-403B-AC88-1BFFC4579BA2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C091A381-F991-44EE-980A-60744945315C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAB38961-7784-4352-8C0C-02343E52E9AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2B9DE5E-87C8-4EE6-860D-511FB50FD79D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3625D1DB-2E24-489B-AFBA-19795D398761}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F22E181A-71D8-4E53-8B41-2B23452214A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B4C7350-E1ED-4C06-A507-E0685172CE49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F86B6A37-A0A6-4AD8-BCCD-A628D8C503DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8805,7 +8805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B4703-9401-4568-BACC-9243F3661132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D6342C-233C-4A83-B53D-A224AE27A7DE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10034,18 +10034,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75A804F3-1649-4E9B-906F-9E6BE396456A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{661457E4-B0FD-4103-A959-DFC419BBE5C6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{835F65A7-91B5-47FE-90A1-41E44F5E8F28}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D10F357-AF6C-421E-B4CF-1B74F5770D10}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0251B07F-3A02-4F04-83FE-08C7D9FB8EAE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7ED4BB08-9C42-4173-955C-A20325261FF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E85346D-5FCA-4B45-9E8C-7E93007619FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7D1D331-C2AA-4624-AF4D-C7162DA4C048}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2327489-8A43-4B6B-AF68-4EB232F9754D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{67AA6AE7-D40C-4C9D-A777-90D5EF939DAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C30A4206-FAC5-4C57-AA67-81FFEB51085F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86C2B5B6-1CA5-4156-A409-75FE69936A0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB7261E5-8962-4A25-8489-E7F365AF5080}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35D3E13B-DB7C-4B42-A18F-F1FB78EF26CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70373744-AA6F-4A7B-969B-8D3176EE93C5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32531F39-A3AB-448B-82D6-EED32722A0E9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93CA6EB8-221A-4791-B198-737D2A1F95D2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{99F43771-D1E2-4F9B-98B5-771FFA513D11}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89D52323-3D81-4831-8331-152DC67F6056}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2D3197A-4840-46BE-ACF9-83E43904119A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{370019AB-D0DE-4639-A27C-EB67BF4904F9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A38ED712-8179-4E92-8750-187599187237}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB7D3EE7-A573-43A8-B6A1-5F15468313B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B6ADB1C-A365-45D0-B4E0-05D3278B3804}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10058,7 +10058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B09F6-5A18-4CF1-86B9-8466784A9D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F8CFCB-C131-45E6-8BC9-C82F1C92F3F2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11287,18 +11287,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E22057E6-F480-4B07-ABAE-990EABA74B67}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B3EBADB-4EB6-4622-A74D-569652ABB1F3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF7037DC-F346-4823-B0AD-88A3591910EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94B3342F-B084-4919-87D2-BEF4E3972903}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7B897EE-8532-4F99-B9ED-5C69D1AF4894}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A169974-CE93-462B-B65E-5E46240A7E5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9815FB1-823B-4F22-AB39-C9DCB6162595}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEBDF22F-8080-450A-87B8-73B1850E7BBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18A74E44-B63A-4580-A8E5-7825525B0020}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E082B37D-CDE2-405E-A986-8E2D21B00EB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08372204-2B18-46DD-AC20-F2A3EE0BFFA4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B892333-77AD-4BD2-B3A2-94BB34B4E1E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0156A4BF-C2E8-49B3-A815-C94788DD5E77}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{321EE3B0-E93C-4074-B5C7-7ED844F36A56}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F4BDC38-F414-4911-A372-E628202FF6D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80664641-800B-44B3-8F78-9C2CFEB769D5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0404AEB3-AB83-47B4-BC0B-A6506FB7CF49}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9B26676F-2BEB-41F7-9246-304BB01A073A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87ADBA1B-8559-444F-BDA9-6601F4FF5E16}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37C54F4E-4B28-4918-82A6-1A6B9060E598}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C6B0C4F-1EBF-4B2E-A293-0FD6B05AF25E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FA53983A-EA6C-4900-BCEB-F78E5D879D6F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F271D16-01DC-4237-BA6B-4B52F6E7F629}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F008590D-F918-4863-A21D-8B1095EF8572}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11311,7 +11311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B23D57-4E34-4E96-8846-F448B289E116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CDECF3-78DD-47A9-9AB9-2E933A7BFAA3}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12533,18 +12533,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93BF2A4A-301E-4279-8F3A-B86B9B293290}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D271D09-8AD7-43D8-AD22-65DD79EC3E17}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF4F1C93-6D54-4C63-BE92-4C6ECAEB11DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8DD04F18-009E-4B23-8CF9-5470D9C8BD03}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{319C90F9-6FAF-450F-A411-39D2818674C0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1EC11027-96F3-4B41-A923-17C527D5F6DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5BBDE80-445D-4CC2-B5E7-607449EE0B27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C535ECD5-A7D9-4F83-BAE7-1CABCDEE0DB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5D952E5-6662-4746-8045-C51C4756430E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8E7A6EB7-D4F8-47AB-87F0-19D35C8338FE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3AAA5447-A983-41A4-894B-C875F7547DDF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D35CA73B-969C-480A-AFA2-B9FBE1EC6966}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1BF0A744-5DAF-4CB7-AD5B-41AA755E4762}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C558C067-4534-4237-BA48-3AD1B2BB28DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E53AE16-BEB0-4145-B5A4-1938B88BDFB7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CF2F9EA-53C7-4FC4-BCEB-1C798B8C0B6B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96C5B2E3-BE9D-4630-800A-99EA5FD770FE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D5DD225-9462-4ACC-9F56-80D76B31B94E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA576F25-304D-4196-A599-5694B2252AC3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4114CC5-5474-4101-9ADD-DF25CF4E23A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA57C292-B6A9-41B2-A30F-7AB133E3FD5B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CC7D27EE-721F-4BAD-B0D2-C6D48021558A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{239F85A7-3BB8-49D8-B92A-CED7207D06EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02556269-2300-4C21-9B8F-EF01DD0D0DF3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12557,7 +12557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7219AA-3FC7-4B30-888C-095910732420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769CB372-7EB1-4941-A867-C85E648BB9C7}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13771,18 +13771,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1786662-2D87-4E8E-B957-E58F120E5259}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FADFB5BA-3383-42C5-83EE-0B5706273D59}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F1E591E-D35D-4EE0-87C9-D6318096DAE6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05264E2E-07BD-4F37-8CF3-92DBB6F930BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38835428-811D-4843-AD53-F626D1042ED5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F2389D95-192F-430C-B770-C183B16DF6DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D514C770-5E65-45A9-8269-42E3FEC04846}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F12298D-FEF8-4ECA-B6A3-E56E34938C0C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC95C4EA-A44C-4FFA-B6A6-8226B6A3959A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5FA324FB-00A4-4295-88D8-E4CF7BECC5DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A149A19-6356-4B09-AF31-FA500C8E34EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9177D07A-87CF-44F7-BDF6-45E22F63134F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BA2A435-ECA9-40C6-A47B-D130CEC338B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C29A375B-357B-4C7D-8D79-33D105B9E6C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E815D503-8590-4F03-939B-31E73767E2A8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B21C993-60A3-4FFF-8F38-4CD0BC38DDCF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F79DA8C1-F3A1-4963-AD46-81BE43B70FED}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{01E5242E-E25F-445E-BB99-60CEAA18608B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE9714A2-93B7-48A8-87EF-762AE24C0165}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0A842AD-2C1D-4F2A-95F7-6105FC7BA935}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52CB93CB-AD1C-4451-BF12-25FEFD23D229}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A3D519B2-0AFD-4B24-BAF6-89108846600C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7A68BB1-7CAC-437B-84FC-1B2EE9B88412}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69933FED-04BC-4097-8FDC-ED88FE476CCC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13795,7 +13795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B25542-B449-4503-9CCD-FE1D93C84081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3532F8-B0AC-4D6F-843E-5D727F197EBD}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15009,18 +15009,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA24A6A3-8B79-4C57-A5F2-BCFD3F9E89F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5114425-4606-4714-8E55-71CC9EC4BA18}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F7C9F3D-BD12-4D27-8708-638F303E351A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D00ECFA-1C5D-4950-9AAF-5AA5B67B6BB9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{849E4D22-AC53-4674-A45E-5677CE06140D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E0F76A60-F583-45B6-8595-EEDF837EFE1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64F0709C-320C-4B40-BFFD-C4B08FEC7D64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15B8DA6E-B927-4A39-869C-79FAEA1F4204}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDC30C53-83E2-4C92-860B-70F8158E2B2F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0F8FD55E-9FC6-4273-8771-56DB91280904}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44AC21EE-45F4-419B-9DA2-425CA0A41D73}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C999E64-F2C4-4826-93D4-B5E955F3A746}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E526AA11-0A91-4D40-A23C-BFED42D7EA7B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D24A3B66-BAE8-4774-814F-6E621D283A70}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9BC2C94-06DD-40CC-8DD1-5DC551889406}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A91A14A-04EE-4B51-AB69-5F7298C7D3D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A68961DB-EA75-4343-B557-A6F1EA06A736}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C984D0FD-7760-4F9D-A25F-D191BEE56126}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29E73115-C981-4E87-8B32-F8D8EA0ABFFA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{101193F8-9632-40BE-BF52-7DF4B4F47CF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB9F43D4-99EA-4346-9C05-D07CB3401D1E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E2D5F813-76B8-4E67-8057-055A7DF12A3E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD78B5EB-F056-4A4E-9CD9-FDC5A9FA37CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5CD35703-87F8-4EDB-AAE0-A5EA9E718680}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15033,7 +15033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3C5C77-9D69-4C3E-87E5-0BFDF9D31BEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3638D7-28F3-4215-A65E-51ABEE7D5B6F}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16247,18 +16247,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC0D0844-B863-4294-9914-2E57304CEA9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9ED502B0-9E1F-4A19-B72C-29B05FEFDF4F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D332F85-C7A4-4818-95E5-9295BFC4E742}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3ADDDE9-0F5A-4720-B7EA-B268D5C1723A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C61B5D2F-EA9E-4B02-AEE5-7E4B50370530}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2A1FE182-EA7F-4783-9F9B-03DA170EE7D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{520EDF13-EEC7-4F9C-A13D-1710C1EA3939}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D81670A8-5FF3-4C94-8A84-FEA65368BA01}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{427F5878-43D4-4111-9D06-63D1EDE379C8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{85FE7FB7-C160-45FA-A020-7EA9D46DDC35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2891B26B-D7EE-4B6F-9B6C-699F107E7EC9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{99244064-8F57-4CC6-B7E3-F3A143EB2066}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39E600BC-015B-4938-B492-5C1A8320E399}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{397F3E5C-A2D7-48F1-A122-54928C351CBE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D96984D-0CAB-46DC-B6BC-ED0DF10EAF05}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{274B5106-B484-4AC9-B5D3-CBBDD36E9AEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F9EB440-5CC3-43EC-A92A-B9347CE4DA7A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BD7BC8C3-E607-4E01-B371-D68D7ED0E081}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6CD22A40-25FC-4F56-AF80-E438F7BBBB8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7369B37F-AFA4-48FC-B124-6C17F85E7662}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7EF6FD45-A4A7-4F4B-8AB6-73833CDCACD7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{79A4C6F9-F0D8-4ECA-9940-CA2F2CC7EC07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54639E1A-A74A-4CCC-B0E1-C46CBD1D7E72}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15DAE259-E15B-471B-B268-80653B2C7025}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
